--- a/dataanalysis/alert/0716.xlsx
+++ b/dataanalysis/alert/0716.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14605"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="186">
   <si>
     <t>序号</t>
   </si>
@@ -585,51 +585,6 @@
   </si>
   <si>
     <t>创新药-肿瘤</t>
-  </si>
-  <si>
-    <t>原料药</t>
-  </si>
-  <si>
-    <t>创新药-艾滋病</t>
-  </si>
-  <si>
-    <t>铜箔+英伟达</t>
-  </si>
-  <si>
-    <t>华人健康</t>
-  </si>
-  <si>
-    <t>医药流通</t>
-  </si>
-  <si>
-    <t>药店</t>
-  </si>
-  <si>
-    <t>固态-铜箔</t>
-  </si>
-  <si>
-    <t>创新药</t>
-  </si>
-  <si>
-    <t>金橙子</t>
-  </si>
-  <si>
-    <t>3D打印</t>
-  </si>
-  <si>
-    <t>利元亨</t>
-  </si>
-  <si>
-    <t>固态电池</t>
-  </si>
-  <si>
-    <t>艾罗能源</t>
-  </si>
-  <si>
-    <t>光伏逆变器</t>
-  </si>
-  <si>
-    <t>光伏</t>
   </si>
 </sst>
 </file>
@@ -644,7 +599,7 @@
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,13 +643,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFDE322C"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -843,7 +791,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,12 +813,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEFCDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC9C7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,13 +1129,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,37 +1147,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,77 +1192,74 @@
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1376,55 +1318,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1950,18 +1843,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA90"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:AA91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="14" max="15" width="11.5045045045045"/>
+    <col min="2" max="2" width="10.375"/>
+    <col min="9" max="9" width="9.375"/>
+    <col min="14" max="15" width="11.5083333333333"/>
+    <col min="26" max="26" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.85" spans="1:27">
+    <row r="1" ht="24" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7064,1510 +6960,6 @@
       <c r="AA64" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
-      <c r="A65" s="20">
-        <v>64</v>
-      </c>
-      <c r="B65" s="21">
-        <v>45852</v>
-      </c>
-      <c r="C65" s="3">
-        <v>688202</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E65" s="3">
-        <v>-3.58</v>
-      </c>
-      <c r="F65" s="3">
-        <v>52</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="H65" s="11">
-        <v>-4.56</v>
-      </c>
-      <c r="I65" s="11">
-        <v>51.3</v>
-      </c>
-      <c r="J65" s="12">
-        <v>-1.35</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="L65" s="27"/>
-      <c r="M65" s="3">
-        <v>5</v>
-      </c>
-      <c r="N65" s="11">
-        <v>-49260608</v>
-      </c>
-      <c r="O65" s="11">
-        <v>-366239</v>
-      </c>
-      <c r="P65" s="11">
-        <v>-0.71</v>
-      </c>
-      <c r="Q65" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R65" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="S65" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T65" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U65" s="8">
-        <v>0</v>
-      </c>
-      <c r="V65" s="3">
-        <v>3.706394196</v>
-      </c>
-      <c r="W65" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23">
-      <c r="A66" s="20">
-        <v>65</v>
-      </c>
-      <c r="B66" s="21">
-        <v>45852</v>
-      </c>
-      <c r="C66" s="3">
-        <v>688221</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2.97</v>
-      </c>
-      <c r="F66" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H66" s="11">
-        <v>-5.72</v>
-      </c>
-      <c r="I66" s="11">
-        <v>18.96</v>
-      </c>
-      <c r="J66" s="12">
-        <v>1.39</v>
-      </c>
-      <c r="K66" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="L66" s="27"/>
-      <c r="M66" s="3">
-        <v>6</v>
-      </c>
-      <c r="N66" s="11">
-        <v>14054164</v>
-      </c>
-      <c r="O66" s="11">
-        <v>-1701918</v>
-      </c>
-      <c r="P66" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="Q66" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R66" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="S66" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T66" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U66" s="8">
-        <v>0</v>
-      </c>
-      <c r="V66" s="3">
-        <v>2.821305275</v>
-      </c>
-      <c r="W66" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23">
-      <c r="A67" s="20">
-        <v>66</v>
-      </c>
-      <c r="B67" s="21">
-        <v>45852</v>
-      </c>
-      <c r="C67" s="3">
-        <v>688313</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E67" s="3">
-        <v>-1.9</v>
-      </c>
-      <c r="F67" s="3">
-        <v>42.87</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H67" s="11">
-        <v>13.55</v>
-      </c>
-      <c r="I67" s="11">
-        <v>49.6</v>
-      </c>
-      <c r="J67" s="12">
-        <v>15.7</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="L67" s="27"/>
-      <c r="M67" s="3">
-        <v>19</v>
-      </c>
-      <c r="N67" s="11">
-        <v>-76552190</v>
-      </c>
-      <c r="O67" s="11">
-        <v>-72194270</v>
-      </c>
-      <c r="P67" s="11">
-        <v>-0.42</v>
-      </c>
-      <c r="Q67" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R67" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="S67" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T67" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="U67" s="8">
-        <v>0</v>
-      </c>
-      <c r="V67" s="3">
-        <v>4.618168831</v>
-      </c>
-      <c r="W67" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
-      <c r="A68" s="20">
-        <v>67</v>
-      </c>
-      <c r="B68" s="21">
-        <v>45852</v>
-      </c>
-      <c r="C68" s="3">
-        <v>688321</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="F68" s="3">
-        <v>33.98</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H68" s="11">
-        <v>5.27</v>
-      </c>
-      <c r="I68" s="11">
-        <v>36.19</v>
-      </c>
-      <c r="J68" s="12">
-        <v>6.5</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="L68" s="27"/>
-      <c r="M68" s="3">
-        <v>10</v>
-      </c>
-      <c r="N68" s="11">
-        <v>-15027739</v>
-      </c>
-      <c r="O68" s="11">
-        <v>82208938</v>
-      </c>
-      <c r="P68" s="11">
-        <v>-0.11</v>
-      </c>
-      <c r="Q68" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R68" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="S68" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T68" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="U68" s="8">
-        <v>0</v>
-      </c>
-      <c r="V68" s="3">
-        <v>10.39123058</v>
-      </c>
-      <c r="W68" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23">
-      <c r="A69" s="20">
-        <v>68</v>
-      </c>
-      <c r="B69" s="21">
-        <v>45852</v>
-      </c>
-      <c r="C69" s="3">
-        <v>688553</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E69" s="3">
-        <v>-1.69</v>
-      </c>
-      <c r="F69" s="3">
-        <v>19.73</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H69" s="11">
-        <v>-3.04</v>
-      </c>
-      <c r="I69" s="11">
-        <v>19.77</v>
-      </c>
-      <c r="J69" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="L69" s="27"/>
-      <c r="M69" s="3">
-        <v>7</v>
-      </c>
-      <c r="N69" s="11">
-        <v>-59298187</v>
-      </c>
-      <c r="O69" s="11">
-        <v>-12132346</v>
-      </c>
-      <c r="P69" s="11">
-        <v>-0.88</v>
-      </c>
-      <c r="Q69" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R69" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="S69" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T69" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U69" s="8">
-        <v>0</v>
-      </c>
-      <c r="V69" s="3">
-        <v>5.349843502</v>
-      </c>
-      <c r="W69" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
-      <c r="A70" s="20">
-        <v>69</v>
-      </c>
-      <c r="B70" s="21">
-        <v>45852</v>
-      </c>
-      <c r="C70" s="3">
-        <v>688799</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E70" s="3">
-        <v>-7.23</v>
-      </c>
-      <c r="F70" s="3">
-        <v>53.8</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H70" s="11">
-        <v>-0.37</v>
-      </c>
-      <c r="I70" s="11">
-        <v>54.4</v>
-      </c>
-      <c r="J70" s="12">
-        <v>1.12</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="L70" s="27"/>
-      <c r="M70" s="3">
-        <v>4</v>
-      </c>
-      <c r="N70" s="11">
-        <v>3104739</v>
-      </c>
-      <c r="O70" s="11">
-        <v>-29655062</v>
-      </c>
-      <c r="P70" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="Q70" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R70" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="S70" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T70" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U70" s="8">
-        <v>0</v>
-      </c>
-      <c r="V70" s="3">
-        <v>-0.168107733</v>
-      </c>
-      <c r="W70" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22">
-      <c r="A71" s="22">
-        <v>70</v>
-      </c>
-      <c r="B71" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C71" s="24">
-        <v>301389</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E71" s="24">
-        <v>12.92</v>
-      </c>
-      <c r="F71" s="24">
-        <v>38.01</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="H71" s="24">
-        <v>-10.18</v>
-      </c>
-      <c r="I71" s="24">
-        <v>38.58</v>
-      </c>
-      <c r="J71" s="28">
-        <v>1.5</v>
-      </c>
-      <c r="K71" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="L71" s="26"/>
-      <c r="M71" s="24">
-        <v>2</v>
-      </c>
-      <c r="N71" s="24">
-        <v>34527781</v>
-      </c>
-      <c r="O71" s="24">
-        <v>51392921</v>
-      </c>
-      <c r="P71" s="30">
-        <v>1.14</v>
-      </c>
-      <c r="Q71" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R71" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="S71" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T71" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="U71" s="34">
-        <v>1</v>
-      </c>
-      <c r="V71" s="35">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22">
-      <c r="A72" s="22">
-        <v>71</v>
-      </c>
-      <c r="B72" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C72" s="24">
-        <v>301408</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="E72" s="24">
-        <v>-1.8</v>
-      </c>
-      <c r="F72" s="24">
-        <v>14.16</v>
-      </c>
-      <c r="G72" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="H72" s="24">
-        <v>1.13</v>
-      </c>
-      <c r="I72" s="24">
-        <v>14.45</v>
-      </c>
-      <c r="J72" s="28">
-        <v>2.05</v>
-      </c>
-      <c r="K72" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="L72" s="26"/>
-      <c r="M72" s="24">
-        <v>7</v>
-      </c>
-      <c r="N72" s="24">
-        <v>-11021427</v>
-      </c>
-      <c r="O72" s="24">
-        <v>-35566435</v>
-      </c>
-      <c r="P72" s="24">
-        <v>-0.53</v>
-      </c>
-      <c r="Q72" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R72" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S72" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T72" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="U72" s="36">
-        <v>0</v>
-      </c>
-      <c r="V72" s="35">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
-      <c r="A73" s="22">
-        <v>72</v>
-      </c>
-      <c r="B73" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C73" s="24">
-        <v>301421</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E73" s="24">
-        <v>-0.82</v>
-      </c>
-      <c r="F73" s="24">
-        <v>71.3</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H73" s="24">
-        <v>-1.61</v>
-      </c>
-      <c r="I73" s="24">
-        <v>71.5</v>
-      </c>
-      <c r="J73" s="28">
-        <v>0.28</v>
-      </c>
-      <c r="K73" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="L73" s="26"/>
-      <c r="M73" s="24">
-        <v>13</v>
-      </c>
-      <c r="N73" s="24">
-        <v>6109307</v>
-      </c>
-      <c r="O73" s="24">
-        <v>-41299175</v>
-      </c>
-      <c r="P73" s="24">
-        <v>0.18</v>
-      </c>
-      <c r="Q73" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R73" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S73" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T73" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="U73" s="36">
-        <v>0</v>
-      </c>
-      <c r="V73" s="35">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
-      <c r="A74" s="22">
-        <v>73</v>
-      </c>
-      <c r="B74" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C74" s="24">
-        <v>301511</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E74" s="24">
-        <v>-4.59</v>
-      </c>
-      <c r="F74" s="24">
-        <v>25.75</v>
-      </c>
-      <c r="G74" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="H74" s="24">
-        <v>-1.9</v>
-      </c>
-      <c r="I74" s="24">
-        <v>27</v>
-      </c>
-      <c r="J74" s="28">
-        <v>4.85</v>
-      </c>
-      <c r="K74" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="L74" s="26"/>
-      <c r="M74" s="24">
-        <v>12</v>
-      </c>
-      <c r="N74" s="24">
-        <v>2673132</v>
-      </c>
-      <c r="O74" s="24">
-        <v>-166530690</v>
-      </c>
-      <c r="P74" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="Q74" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R74" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S74" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T74" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="U74" s="36">
-        <v>0</v>
-      </c>
-      <c r="V74" s="35">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
-      <c r="A75" s="22">
-        <v>74</v>
-      </c>
-      <c r="B75" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C75" s="24">
-        <v>301526</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E75" s="24">
-        <v>5.95</v>
-      </c>
-      <c r="F75" s="24">
-        <v>5.34</v>
-      </c>
-      <c r="G75" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="H75" s="24">
-        <v>3</v>
-      </c>
-      <c r="I75" s="24">
-        <v>5.97</v>
-      </c>
-      <c r="J75" s="28">
-        <v>11.8</v>
-      </c>
-      <c r="K75" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="L75" s="26"/>
-      <c r="M75" s="24">
-        <v>2</v>
-      </c>
-      <c r="N75" s="24">
-        <v>-375990470</v>
-      </c>
-      <c r="O75" s="24">
-        <v>90197620</v>
-      </c>
-      <c r="P75" s="24">
-        <v>-5.01</v>
-      </c>
-      <c r="Q75" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R75" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S75" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T75" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="U75" s="36">
-        <v>0</v>
-      </c>
-      <c r="V75" s="35">
-        <v>7.79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22">
-      <c r="A76" s="22">
-        <v>75</v>
-      </c>
-      <c r="B76" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C76" s="24">
-        <v>688062</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E76" s="24">
-        <v>-0.62</v>
-      </c>
-      <c r="F76" s="24">
-        <v>30.4</v>
-      </c>
-      <c r="G76" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="H76" s="24">
-        <v>4.38</v>
-      </c>
-      <c r="I76" s="24">
-        <v>32.02</v>
-      </c>
-      <c r="J76" s="28">
-        <v>5.33</v>
-      </c>
-      <c r="K76" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="L76" s="26"/>
-      <c r="M76" s="24">
-        <v>5</v>
-      </c>
-      <c r="N76" s="24">
-        <v>4284870</v>
-      </c>
-      <c r="O76" s="24">
-        <v>-7107171</v>
-      </c>
-      <c r="P76" s="24">
-        <v>0.05</v>
-      </c>
-      <c r="Q76" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R76" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S76" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T76" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="U76" s="36">
-        <v>0</v>
-      </c>
-      <c r="V76" s="35">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22">
-      <c r="A77" s="22">
-        <v>76</v>
-      </c>
-      <c r="B77" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C77" s="24">
-        <v>688117</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="E77" s="24">
-        <v>-3.85</v>
-      </c>
-      <c r="F77" s="24">
-        <v>34.51</v>
-      </c>
-      <c r="G77" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="H77" s="24">
-        <v>-0.2</v>
-      </c>
-      <c r="I77" s="24">
-        <v>35.58</v>
-      </c>
-      <c r="J77" s="28">
-        <v>3.1</v>
-      </c>
-      <c r="K77" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="L77" s="26"/>
-      <c r="M77" s="24">
-        <v>22</v>
-      </c>
-      <c r="N77" s="24">
-        <v>-13952649</v>
-      </c>
-      <c r="O77" s="24">
-        <v>-67257006</v>
-      </c>
-      <c r="P77" s="24">
-        <v>-0.27</v>
-      </c>
-      <c r="Q77" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R77" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S77" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T77" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="U77" s="34">
-        <v>1</v>
-      </c>
-      <c r="V77" s="35">
-        <v>5.84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22">
-      <c r="A78" s="22">
-        <v>77</v>
-      </c>
-      <c r="B78" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C78" s="24">
-        <v>688202</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E78" s="24">
-        <v>13.36</v>
-      </c>
-      <c r="F78" s="24">
-        <v>51.35</v>
-      </c>
-      <c r="G78" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="H78" s="24">
-        <v>-2.04</v>
-      </c>
-      <c r="I78" s="24">
-        <v>52.35</v>
-      </c>
-      <c r="J78" s="28">
-        <v>1.95</v>
-      </c>
-      <c r="K78" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="L78" s="26"/>
-      <c r="M78" s="24">
-        <v>2</v>
-      </c>
-      <c r="N78" s="24">
-        <v>-53810123</v>
-      </c>
-      <c r="O78" s="24">
-        <v>171237602</v>
-      </c>
-      <c r="P78" s="24">
-        <v>-0.8</v>
-      </c>
-      <c r="Q78" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R78" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S78" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T78" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="U78" s="34">
-        <v>1</v>
-      </c>
-      <c r="V78" s="35">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22">
-      <c r="A79" s="22">
-        <v>78</v>
-      </c>
-      <c r="B79" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C79" s="24">
-        <v>688221</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E79" s="24">
-        <v>-2.3</v>
-      </c>
-      <c r="F79" s="24">
-        <v>14.46</v>
-      </c>
-      <c r="G79" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="H79" s="24">
-        <v>11.48</v>
-      </c>
-      <c r="I79" s="24">
-        <v>16.35</v>
-      </c>
-      <c r="J79" s="28">
-        <v>13.07</v>
-      </c>
-      <c r="K79" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="L79" s="26"/>
-      <c r="M79" s="24">
-        <v>3</v>
-      </c>
-      <c r="N79" s="24">
-        <v>7780666</v>
-      </c>
-      <c r="O79" s="24">
-        <v>-21077976</v>
-      </c>
-      <c r="P79" s="24">
-        <v>0.14</v>
-      </c>
-      <c r="Q79" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R79" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S79" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T79" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="U79" s="36">
-        <v>0</v>
-      </c>
-      <c r="V79" s="35">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22">
-      <c r="A80" s="22">
-        <v>79</v>
-      </c>
-      <c r="B80" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C80" s="24">
-        <v>688291</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E80" s="24">
-        <v>-5.6</v>
-      </c>
-      <c r="F80" s="24">
-        <v>38.47</v>
-      </c>
-      <c r="G80" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H80" s="24">
-        <v>-9.41</v>
-      </c>
-      <c r="I80" s="24">
-        <v>37.9</v>
-      </c>
-      <c r="J80" s="28">
-        <v>-1.48</v>
-      </c>
-      <c r="K80" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="L80" s="26"/>
-      <c r="M80" s="24">
-        <v>2</v>
-      </c>
-      <c r="N80" s="24">
-        <v>-7707118</v>
-      </c>
-      <c r="O80" s="24">
-        <v>-46695839</v>
-      </c>
-      <c r="P80" s="24">
-        <v>-0.62</v>
-      </c>
-      <c r="Q80" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R80" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S80" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T80" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="U80" s="34">
-        <v>1</v>
-      </c>
-      <c r="V80" s="35">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
-      <c r="A81" s="22">
-        <v>80</v>
-      </c>
-      <c r="B81" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C81" s="24">
-        <v>688321</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E81" s="24">
-        <v>-0.32</v>
-      </c>
-      <c r="F81" s="24">
-        <v>31.3</v>
-      </c>
-      <c r="G81" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H81" s="24">
-        <v>4.38</v>
-      </c>
-      <c r="I81" s="24">
-        <v>34.27</v>
-      </c>
-      <c r="J81" s="28">
-        <v>9.49</v>
-      </c>
-      <c r="K81" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="L81" s="26"/>
-      <c r="M81" s="24">
-        <v>7</v>
-      </c>
-      <c r="N81" s="24">
-        <v>30125792</v>
-      </c>
-      <c r="O81" s="24">
-        <v>6933609</v>
-      </c>
-      <c r="P81" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="Q81" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R81" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S81" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T81" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="U81" s="36">
-        <v>0</v>
-      </c>
-      <c r="V81" s="35">
-        <v>1.84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
-      <c r="A82" s="22">
-        <v>81</v>
-      </c>
-      <c r="B82" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C82" s="24">
-        <v>688499</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E82" s="24">
-        <v>0.31</v>
-      </c>
-      <c r="F82" s="24">
-        <v>39.4</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H82" s="24">
-        <v>0.15</v>
-      </c>
-      <c r="I82" s="24">
-        <v>39.78</v>
-      </c>
-      <c r="J82" s="28">
-        <v>0.96</v>
-      </c>
-      <c r="K82" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="L82" s="26"/>
-      <c r="M82" s="24">
-        <v>17</v>
-      </c>
-      <c r="N82" s="24">
-        <v>19289881</v>
-      </c>
-      <c r="O82" s="24">
-        <v>-44664137</v>
-      </c>
-      <c r="P82" s="24">
-        <v>0.28</v>
-      </c>
-      <c r="Q82" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R82" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S82" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T82" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="U82" s="34">
-        <v>1</v>
-      </c>
-      <c r="V82" s="35">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
-      <c r="A83" s="22">
-        <v>82</v>
-      </c>
-      <c r="B83" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C83" s="24">
-        <v>688553</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" s="24">
-        <v>2.93</v>
-      </c>
-      <c r="F83" s="24">
-        <v>20.02</v>
-      </c>
-      <c r="G83" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H83" s="24">
-        <v>1.55</v>
-      </c>
-      <c r="I83" s="24">
-        <v>21.45</v>
-      </c>
-      <c r="J83" s="28">
-        <v>7.14</v>
-      </c>
-      <c r="K83" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="L83" s="26"/>
-      <c r="M83" s="24">
-        <v>4</v>
-      </c>
-      <c r="N83" s="24">
-        <v>59848949</v>
-      </c>
-      <c r="O83" s="24">
-        <v>-2816247</v>
-      </c>
-      <c r="P83" s="30">
-        <v>0.86</v>
-      </c>
-      <c r="Q83" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R83" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S83" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T83" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="U83" s="36">
-        <v>0</v>
-      </c>
-      <c r="V83" s="35">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22">
-      <c r="A84" s="22">
-        <v>83</v>
-      </c>
-      <c r="B84" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C84" s="24">
-        <v>688717</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="E84" s="24">
-        <v>-1.7</v>
-      </c>
-      <c r="F84" s="24">
-        <v>64.88</v>
-      </c>
-      <c r="G84" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="H84" s="24">
-        <v>2.67</v>
-      </c>
-      <c r="I84" s="24">
-        <v>69.75</v>
-      </c>
-      <c r="J84" s="28">
-        <v>7.51</v>
-      </c>
-      <c r="K84" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="L84" s="26"/>
-      <c r="M84" s="24">
-        <v>2</v>
-      </c>
-      <c r="N84" s="24">
-        <v>-6717984</v>
-      </c>
-      <c r="O84" s="24">
-        <v>-49763618</v>
-      </c>
-      <c r="P84" s="24">
-        <v>-0.11</v>
-      </c>
-      <c r="Q84" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R84" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S84" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T84" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="U84" s="34">
-        <v>1</v>
-      </c>
-      <c r="V84" s="35">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22">
-      <c r="A85" s="22">
-        <v>84</v>
-      </c>
-      <c r="B85" s="23">
-        <v>45847</v>
-      </c>
-      <c r="C85" s="24">
-        <v>688799</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E85" s="24">
-        <v>3.04</v>
-      </c>
-      <c r="F85" s="24">
-        <v>50.49</v>
-      </c>
-      <c r="G85" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H85" s="24">
-        <v>14.85</v>
-      </c>
-      <c r="I85" s="24">
-        <v>60.55</v>
-      </c>
-      <c r="J85" s="28">
-        <v>19.92</v>
-      </c>
-      <c r="K85" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="L85" s="26"/>
-      <c r="M85" s="24">
-        <v>1</v>
-      </c>
-      <c r="N85" s="24">
-        <v>24271837</v>
-      </c>
-      <c r="O85" s="24">
-        <v>24053543</v>
-      </c>
-      <c r="P85" s="30">
-        <v>0.37</v>
-      </c>
-      <c r="Q85" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R85" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="S85" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="T85" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="U85" s="36">
-        <v>0</v>
-      </c>
-      <c r="V85" s="35">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
-      <c r="A86" s="22"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-    </row>
-    <row r="87" spans="1:18">
-      <c r="A87" s="22"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="26"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="33"/>
-    </row>
-    <row r="88" spans="1:18">
-      <c r="A88" s="22"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="26"/>
-      <c r="M88" s="24"/>
-      <c r="N88" s="24"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="24"/>
-      <c r="Q88" s="29"/>
-      <c r="R88" s="33"/>
-    </row>
-    <row r="89" spans="1:18">
-      <c r="A89" s="22"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="26"/>
-      <c r="L89" s="26"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="29"/>
-      <c r="R89" s="33"/>
-    </row>
-    <row r="90" spans="1:18">
-      <c r="A90" s="22"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="26"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="30"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
